--- a/Test Curves/Saddle.xlsx
+++ b/Test Curves/Saddle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\em15101\Documents\GitHub\ENME802_2021S1_Project2\Test Curves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajac\OneDrive\Documents\GitHub\ENME802_2021S1_Project2\Test Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C99B0C-B9CF-4F5C-A48C-F9554D56F195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88027D68-D336-402B-BF26-385BD0384C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{403CED06-A3F0-473F-B089-E1B0FB13056F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{403CED06-A3F0-473F-B089-E1B0FB13056F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bx" sheetId="1" r:id="rId1"/>
@@ -376,12 +376,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -468,6 +468,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -476,12 +477,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -498,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -515,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -532,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -549,7 +550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
@@ -568,6 +569,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -576,12 +578,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -598,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-10</v>
       </c>
@@ -615,7 +617,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -632,7 +634,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -649,7 +651,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -668,5 +670,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>